--- a/02_MasterWifoMannheim/99_Backup/Course111.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course111.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159D5A0345CD7FE36" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EBA19D7-1DBF-4FF7-AD98-12D952874B03}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 644 Human Resource Training and Development</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In this course, we will focus on Training and Development as a key discipline within the field of Human Resource Management. and Development, this course will take you through the various aspects of training and development design, as well as the training and development methods. The lecture will cover the following topics:  Strategic Training and Development  Training and Development Needs Assessment  Learning and Knowledge Transfer  Training and Development Program Design  Training and Development Evaluation  Traditional Training Methods  Technology-based Training Methods  Employee Development and Career Management During the exercise sessions, various topics that will have been covered in the lecture will be further elaborated through case studies, group assignments, practical group exercises and plenary discussions.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Upon completion of this course, students will able to:  perform a training and development needs assessment  knowledgably discuss key concepts of learning and knowledge transfer  design a training and development program  evaluate the impact of training and development measures  identify and apply key characteristics of traditional training methods  identify and apply key characteristics of traditional technology-based training methods</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 Min.): 75% Assignment: 25%</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Frank C. Danesy</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 644 Human Resource Training and Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In this course, we will focus on Training and Development as a key discipline within the field of Human Resource Management. and Development, this course will take you through the various aspects of training and development design, as well as the training and development methods. The lecture will cover the following topics:  Strategic Training and Development  Training and Development Needs Assessment  Learning and Knowledge Transfer  Training and Development Program Design  Training and Development Evaluation  Traditional Training Methods  Technology-based Training Methods  Employee Development and Career Management During the exercise sessions, various topics that will have been covered in the lecture will be further elaborated through case studies, group assignments, practical group exercises and plenary discussions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Upon completion of this course, students will able to:  perform a training and development needs assessment  knowledgably discuss key concepts of learning and knowledge transfer  design a training and development program  evaluate the impact of training and development measures  identify and apply key characteristics of traditional training methods  identify and apply key characteristics of traditional technology-based training methods</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 Min.): 75% Assignment: 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Frank C. Danesy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
